--- a/person/李婷/任务4/用户故事.xlsx
+++ b/person/李婷/任务4/用户故事.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a.software\a.git\The-strongest-surface\person\李婷\任务4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3586CA82-A761-4639-95A8-E65BD5851A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3570CC-84AC-4B61-9BD0-671F5D4286AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A895967B-56FC-4138-894A-D0FB8CAEAB67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A895967B-56FC-4138-894A-D0FB8CAEAB67}"/>
   </bookViews>
   <sheets>
     <sheet name="PEOJECT VISION" sheetId="4" r:id="rId1"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动分类活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作为一个普通用户，我希望可以看到某一类的活动推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +382,10 @@
   </si>
   <si>
     <t>会员充值即可发布艺术品的售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新活动推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E7134D-8F8A-47EC-BF3D-4AB19E1C3495}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
     <row r="2" spans="1:10" s="31" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -1923,32 +1923,32 @@
     </row>
     <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>51</v>
       </c>
       <c r="E4" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -1956,7 +1956,7 @@
     <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09082975-227B-44FF-A16A-46A8606CAB30}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2046,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -2078,10 +2078,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -2110,10 +2110,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -2142,10 +2142,10 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -2174,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -2206,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -2238,10 +2238,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -2270,10 +2270,10 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -2302,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
@@ -2334,10 +2334,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
@@ -2403,6 +2403,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/person/李婷/任务4/用户故事.xlsx
+++ b/person/李婷/任务4/用户故事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a.software\a.git\The-strongest-surface\person\李婷\任务4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3570CC-84AC-4B61-9BD0-671F5D4286AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5EC594-5B54-49FA-9DE6-4FEE42693A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A895967B-56FC-4138-894A-D0FB8CAEAB67}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>引用编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,54 @@
   </si>
   <si>
     <t>最新活动推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活动消息推送页中，点击某一活动，进入活动详情页，在详情页中点击圈子，即可进入该活动的聊天群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活动消息推送页中，点击某一活动，进入活动详情页，在详情页中点击作者，就跳到作者的个人简介页，点击关注和私信，即可向作者私信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，点击商品页面，选择票类，点击进入想要购买的票类，进入详情页，点击加入购物车或直接购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，点击商品页面，选择艺术品，点击进入想要购买的艺术品，进入详情页，点击加入购物车或直接购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，点击商品页面，选择发布，填写发布售卖艺术品的详细信息，点击发布即可发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，在首页侧滑栏中点击会员详情，跳转会员页，即可查看会员详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，在首页中的右上角点击搜索标志，跳转搜素页即可进行搜素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册，填写自己的信息，即可拥有一个账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，在首页页面中，点击EYE或EAR选框，进入到EYE或EAR消息推送页面，就可以查看最新消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆，在首页页面中，点击EYE或EAR选框，进入到EYE或EAR消息推送页面，在EYE或EAR消息推送页面中，点击选择的活动分类，页面中呈现这一分类的活动，就可以查看分类的消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活动消息推送页中，点击某一活动，进入活动详情页，即可了解相关背景知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +793,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +916,9 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 3" xfId="2" xr:uid="{CD3C69D2-486E-4254-8A3C-BC231DF10111}"/>
@@ -1986,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09082975-227B-44FF-A16A-46A8606CAB30}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1998,9 +2049,10 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="54.58203125" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="30.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="66.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="66.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2031,8 +2083,12 @@
       <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2063,8 +2119,11 @@
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2095,8 +2154,11 @@
       <c r="J3">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2127,8 +2189,11 @@
       <c r="J4">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2159,8 +2224,11 @@
       <c r="J5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2191,8 +2259,11 @@
       <c r="J6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2223,8 +2294,11 @@
       <c r="J7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2255,8 +2329,11 @@
       <c r="J8">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2287,8 +2364,11 @@
       <c r="J9">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2319,8 +2399,11 @@
       <c r="J10">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2351,8 +2434,11 @@
       <c r="J11">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="K11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2383,20 +2469,23 @@
       <c r="J12">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
